--- a/templates/dataplant/ArrayExpress_-_Sequencing_library.xlsx
+++ b/templates/dataplant/ArrayExpress_-_Sequencing_library.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -80,6 +80,9 @@
     <t>Sequencing Library</t>
   </si>
   <si>
+    <t>Transcriptomics</t>
+  </si>
+  <si>
     <t>mandatory</t>
   </si>
   <si>
@@ -90,6 +93,9 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C148073</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C153189</t>
   </si>
   <si>
     <t>Tags Term Source REF</t>
@@ -575,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -659,7 +665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -672,99 +678,108 @@
       <c r="D13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -780,46 +795,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/ArrayExpress_-_Sequencing_library.xlsx
+++ b/templates/dataplant/ArrayExpress_-_Sequencing_library.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Description</t>
@@ -155,6 +155,18 @@
     <t>Input [Sample Name]</t>
   </si>
   <si>
+    <t>Protocol Type</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000161)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000161)</t>
+  </si>
+  <si>
+    <t>Protocol REF</t>
+  </si>
+  <si>
     <t>Parameter [library layout]</t>
   </si>
   <si>
@@ -192,6 +204,9 @@
   </si>
   <si>
     <t>Output [Raw Data File]</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -247,8 +262,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:N1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:N1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:R2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:R2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -263,22 +278,30 @@
     <filterColumn colId="11" hiddenButton="1"/>
     <filterColumn colId="12" hiddenButton="1"/>
     <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+    <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="14">
+  <tableColumns count="18">
     <tableColumn id="1" name="Input [Sample Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Parameter [library layout]" totalsRowFunction="none"/>
-    <tableColumn id="3" name="Term Source REF (DPBO:0000015)" totalsRowFunction="none"/>
-    <tableColumn id="4" name="Term Accession Number (DPBO:0000015)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Parameter [library source]" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Term Source REF (GENEPIO:0001965)" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Term Accession Number (GENEPIO:0001965)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Parameter [library strategy]" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Term Source REF (DPBO:0000035)" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Accession Number (DPBO:0000035)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Parameter [library selection]" totalsRowFunction="none"/>
-    <tableColumn id="12" name="Term Source REF (DPBO:0000036)" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Term Accession Number (DPBO:0000036)" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Output [Raw Data File]" totalsRowFunction="none"/>
+    <tableColumn id="2" name="Protocol Type" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Term Source REF (DPBO:1000161)" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Term Accession Number (DPBO:1000161)" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Protocol REF" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Parameter [library layout]" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Term Source REF (DPBO:0000015)" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Term Accession Number (DPBO:0000015)" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Parameter [library source]" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Term Source REF (GENEPIO:0001965)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Term Accession Number (GENEPIO:0001965)" totalsRowFunction="none"/>
+    <tableColumn id="12" name="Parameter [library strategy]" totalsRowFunction="none"/>
+    <tableColumn id="13" name="Term Source REF (DPBO:0000035)" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Term Accession Number (DPBO:0000035)" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Parameter [library selection]" totalsRowFunction="none"/>
+    <tableColumn id="16" name="Term Source REF (DPBO:0000036)" totalsRowFunction="none"/>
+    <tableColumn id="17" name="Term Accession Number (DPBO:0000036)" totalsRowFunction="none"/>
+    <tableColumn id="18" name="Output [Raw Data File]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -790,10 +813,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:R2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -835,6 +858,74 @@
       </c>
       <c r="N1" t="s">
         <v>59</v>
+      </c>
+      <c r="O1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/ArrayExpress_-_Sequencing_library.xlsx
+++ b/templates/dataplant/ArrayExpress_-_Sequencing_library.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Description</t>
@@ -207,6 +207,33 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>single-end</t>
+  </si>
+  <si>
+    <t>DPBO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_0000086</t>
+  </si>
+  <si>
+    <t>Genome</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C16629</t>
+  </si>
+  <si>
+    <t>Whole Genome Sequencing</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C101294</t>
+  </si>
+  <si>
+    <t>Polymerase Chain Reaction</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C17003</t>
   </si>
 </sst>
 </file>
@@ -889,40 +916,40 @@
         <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="O2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="P2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="Q2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s">
         <v>64</v>

--- a/templates/dataplant/ArrayExpress_-_Sequencing_library.xlsx
+++ b/templates/dataplant/ArrayExpress_-_Sequencing_library.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -207,6 +207,18 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>nucleic acid library construction protocol</t>
+  </si>
+  <si>
+    <t>EFO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EFO_0004184</t>
+  </si>
+  <si>
+    <t>library_construction.txt</t>
   </si>
   <si>
     <t>single-end</t>
@@ -904,52 +916,52 @@
         <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
         <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M2" t="s">
         <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P2" t="s">
         <v>29</v>
       </c>
       <c r="Q2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s">
         <v>64</v>

--- a/templates/dataplant/ArrayExpress_-_Sequencing_library.xlsx
+++ b/templates/dataplant/ArrayExpress_-_Sequencing_library.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.2</t>
+    <t>1.0.3</t>
   </si>
   <si>
     <t>Description</t>
@@ -176,7 +176,7 @@
     <t>Term Accession Number (DPBO:0000015)</t>
   </si>
   <si>
-    <t>Parameter [library source]</t>
+    <t>Characteristic [library source]</t>
   </si>
   <si>
     <t>Term Source REF (GENEPIO:0001965)</t>
@@ -203,7 +203,7 @@
     <t>Term Accession Number (DPBO:0000036)</t>
   </si>
   <si>
-    <t>Output [Raw Data File]</t>
+    <t>Output [Data]</t>
   </si>
   <si>
     <t/>
@@ -215,7 +215,7 @@
     <t>EFO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/EFO_0004184</t>
+    <t>https://bioregistry.io/EFO:0004184</t>
   </si>
   <si>
     <t>library_construction.txt</t>
@@ -227,25 +227,25 @@
     <t>DPBO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_0000086</t>
+    <t>http://purl.org/nfdi4plants/ontology/dpbo/DPBO_0000086</t>
   </si>
   <si>
     <t>Genome</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C16629</t>
+    <t>https://bioregistry.io/NCIT:C16629</t>
   </si>
   <si>
     <t>Whole Genome Sequencing</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C101294</t>
+    <t>https://bioregistry.io/NCIT:C101294</t>
   </si>
   <si>
     <t>Polymerase Chain Reaction</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C17003</t>
+    <t>https://bioregistry.io/NCIT:C17003</t>
   </si>
 </sst>
 </file>
@@ -331,7 +331,7 @@
     <tableColumn id="6" name="Parameter [library layout]" totalsRowFunction="none"/>
     <tableColumn id="7" name="Term Source REF (DPBO:0000015)" totalsRowFunction="none"/>
     <tableColumn id="8" name="Term Accession Number (DPBO:0000015)" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Parameter [library source]" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Characteristic [library source]" totalsRowFunction="none"/>
     <tableColumn id="10" name="Term Source REF (GENEPIO:0001965)" totalsRowFunction="none"/>
     <tableColumn id="11" name="Term Accession Number (GENEPIO:0001965)" totalsRowFunction="none"/>
     <tableColumn id="12" name="Parameter [library strategy]" totalsRowFunction="none"/>
@@ -340,7 +340,7 @@
     <tableColumn id="15" name="Parameter [library selection]" totalsRowFunction="none"/>
     <tableColumn id="16" name="Term Source REF (DPBO:0000036)" totalsRowFunction="none"/>
     <tableColumn id="17" name="Term Accession Number (DPBO:0000036)" totalsRowFunction="none"/>
-    <tableColumn id="18" name="Output [Raw Data File]" totalsRowFunction="none"/>
+    <tableColumn id="18" name="Output [Data]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/templates/dataplant/ArrayExpress_-_Sequencing_library.xlsx
+++ b/templates/dataplant/ArrayExpress_-_Sequencing_library.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -32,13 +32,13 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Template with the mandatory sequencing library information for submitting genomic data to ArrayExpress.</t>
+    <t>Template with the mandatory sequencing library information for submitting functional genomic data to ArrayExpress.</t>
   </si>
   <si>
     <t>Organisation</t>
@@ -74,9 +74,6 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>Genomics</t>
-  </si>
-  <si>
     <t>Sequencing Library</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>Tags Term Accession Number</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C84343</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C148073</t>
   </si>
   <si>
@@ -155,18 +149,6 @@
     <t>Input [Sample Name]</t>
   </si>
   <si>
-    <t>Protocol Type</t>
-  </si>
-  <si>
-    <t>Term Source REF (DPBO:1000161)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:1000161)</t>
-  </si>
-  <si>
-    <t>Protocol REF</t>
-  </si>
-  <si>
     <t>Parameter [library layout]</t>
   </si>
   <si>
@@ -203,49 +185,73 @@
     <t>Term Accession Number (DPBO:0000036)</t>
   </si>
   <si>
+    <t>Parameter [nucleic acid library construction protocol]</t>
+  </si>
+  <si>
+    <t>Term Source REF (EFO:0004184)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (EFO:0004184)</t>
+  </si>
+  <si>
+    <t>Parameter [nucleic acid sequencing protocol]</t>
+  </si>
+  <si>
+    <t>Term Source REF (EFO:0004170)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (EFO:0004170)</t>
+  </si>
+  <si>
     <t>Output [Data]</t>
   </si>
   <si>
+    <t>Data Format</t>
+  </si>
+  <si>
+    <t>Data Selector Format</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>nucleic acid library construction protocol</t>
+    <t>single-end</t>
+  </si>
+  <si>
+    <t>DPBO</t>
+  </si>
+  <si>
+    <t>http://purl.org/nfdi4plants/ontology/dpbo/DPBO_0000086</t>
+  </si>
+  <si>
+    <t>transcriptomic source</t>
+  </si>
+  <si>
+    <t>GENEPIO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0001971</t>
+  </si>
+  <si>
+    <t>RNA-Seq</t>
   </si>
   <si>
     <t>EFO</t>
   </si>
   <si>
-    <t>https://bioregistry.io/EFO:0004184</t>
+    <t>https://bioregistry.io/EFO:0008896</t>
+  </si>
+  <si>
+    <t>RT-PCR method</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0001959</t>
   </si>
   <si>
     <t>library_construction.txt</t>
   </si>
   <si>
-    <t>single-end</t>
-  </si>
-  <si>
-    <t>DPBO</t>
-  </si>
-  <si>
-    <t>http://purl.org/nfdi4plants/ontology/dpbo/DPBO_0000086</t>
-  </si>
-  <si>
-    <t>Genome</t>
-  </si>
-  <si>
-    <t>https://bioregistry.io/NCIT:C16629</t>
-  </si>
-  <si>
-    <t>Whole Genome Sequencing</t>
-  </si>
-  <si>
-    <t>https://bioregistry.io/NCIT:C101294</t>
-  </si>
-  <si>
-    <t>Polymerase Chain Reaction</t>
-  </si>
-  <si>
-    <t>https://bioregistry.io/NCIT:C17003</t>
+    <t>RNASeq_protocol.txt</t>
   </si>
 </sst>
 </file>
@@ -301,8 +307,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:R2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:R2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:V2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:V2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -321,26 +327,34 @@
     <filterColumn colId="15" hiddenButton="1"/>
     <filterColumn colId="16" hiddenButton="1"/>
     <filterColumn colId="17" hiddenButton="1"/>
+    <filterColumn colId="18" hiddenButton="1"/>
+    <filterColumn colId="19" hiddenButton="1"/>
+    <filterColumn colId="20" hiddenButton="1"/>
+    <filterColumn colId="21" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="18">
+  <tableColumns count="22">
     <tableColumn id="1" name="Input [Sample Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Protocol Type" totalsRowFunction="none"/>
-    <tableColumn id="3" name="Term Source REF (DPBO:1000161)" totalsRowFunction="none"/>
-    <tableColumn id="4" name="Term Accession Number (DPBO:1000161)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Protocol REF" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Parameter [library layout]" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Term Source REF (DPBO:0000015)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Term Accession Number (DPBO:0000015)" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Characteristic [library source]" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Source REF (GENEPIO:0001965)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Term Accession Number (GENEPIO:0001965)" totalsRowFunction="none"/>
-    <tableColumn id="12" name="Parameter [library strategy]" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Term Source REF (DPBO:0000035)" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Term Accession Number (DPBO:0000035)" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Parameter [library selection]" totalsRowFunction="none"/>
-    <tableColumn id="16" name="Term Source REF (DPBO:0000036)" totalsRowFunction="none"/>
-    <tableColumn id="17" name="Term Accession Number (DPBO:0000036)" totalsRowFunction="none"/>
-    <tableColumn id="18" name="Output [Data]" totalsRowFunction="none"/>
+    <tableColumn id="2" name="Parameter [library layout]" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Term Source REF (DPBO:0000015)" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Term Accession Number (DPBO:0000015)" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Characteristic [library source]" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Term Source REF (GENEPIO:0001965)" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Term Accession Number (GENEPIO:0001965)" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Parameter [library strategy]" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Term Source REF (DPBO:0000035)" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Term Accession Number (DPBO:0000035)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Parameter [library selection]" totalsRowFunction="none"/>
+    <tableColumn id="12" name="Term Source REF (DPBO:0000036)" totalsRowFunction="none"/>
+    <tableColumn id="13" name="Term Accession Number (DPBO:0000036)" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Parameter [nucleic acid library construction protocol]" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Term Source REF (EFO:0004184)" totalsRowFunction="none"/>
+    <tableColumn id="16" name="Term Accession Number (EFO:0004184)" totalsRowFunction="none"/>
+    <tableColumn id="17" name="Parameter [nucleic acid sequencing protocol]" totalsRowFunction="none"/>
+    <tableColumn id="18" name="Term Source REF (EFO:0004170)" totalsRowFunction="none"/>
+    <tableColumn id="19" name="Term Accession Number (EFO:0004170)" totalsRowFunction="none"/>
+    <tableColumn id="20" name="Output [Data]" totalsRowFunction="none"/>
+    <tableColumn id="21" name="Data Format" totalsRowFunction="none"/>
+    <tableColumn id="22" name="Data Selector Format" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -643,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:D27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -727,7 +741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -740,108 +754,99 @@
       <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
       <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -852,119 +857,143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:V2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>57</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>58</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>59</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>62</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" t="s">
-        <v>76</v>
-      </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="Q2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R2" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="S2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/ArrayExpress_-_Sequencing_library.xlsx
+++ b/templates/dataplant/ArrayExpress_-_Sequencing_library.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.4</t>
+    <t>1.0.5</t>
   </si>
   <si>
     <t>Description</t>
@@ -149,6 +149,15 @@
     <t>Input [Sample Name]</t>
   </si>
   <si>
+    <t>Parameter [nucleic acid extraction protocol]</t>
+  </si>
+  <si>
+    <t>Term Source REF (EFO:0002944)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (EFO:0002944)</t>
+  </si>
+  <si>
     <t>Parameter [library layout]</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>RNA_extraction.txt</t>
   </si>
   <si>
     <t>single-end</t>
@@ -307,8 +319,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:V2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:V2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:Y2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:Y2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -331,30 +343,36 @@
     <filterColumn colId="19" hiddenButton="1"/>
     <filterColumn colId="20" hiddenButton="1"/>
     <filterColumn colId="21" hiddenButton="1"/>
+    <filterColumn colId="22" hiddenButton="1"/>
+    <filterColumn colId="23" hiddenButton="1"/>
+    <filterColumn colId="24" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="22">
+  <tableColumns count="25">
     <tableColumn id="1" name="Input [Sample Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Parameter [library layout]" totalsRowFunction="none"/>
-    <tableColumn id="3" name="Term Source REF (DPBO:0000015)" totalsRowFunction="none"/>
-    <tableColumn id="4" name="Term Accession Number (DPBO:0000015)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Characteristic [library source]" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Term Source REF (GENEPIO:0001965)" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Term Accession Number (GENEPIO:0001965)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Parameter [library strategy]" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Term Source REF (DPBO:0000035)" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Accession Number (DPBO:0000035)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Parameter [library selection]" totalsRowFunction="none"/>
-    <tableColumn id="12" name="Term Source REF (DPBO:0000036)" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Term Accession Number (DPBO:0000036)" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Parameter [nucleic acid library construction protocol]" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Term Source REF (EFO:0004184)" totalsRowFunction="none"/>
-    <tableColumn id="16" name="Term Accession Number (EFO:0004184)" totalsRowFunction="none"/>
-    <tableColumn id="17" name="Parameter [nucleic acid sequencing protocol]" totalsRowFunction="none"/>
-    <tableColumn id="18" name="Term Source REF (EFO:0004170)" totalsRowFunction="none"/>
-    <tableColumn id="19" name="Term Accession Number (EFO:0004170)" totalsRowFunction="none"/>
-    <tableColumn id="20" name="Output [Data]" totalsRowFunction="none"/>
-    <tableColumn id="21" name="Data Format" totalsRowFunction="none"/>
-    <tableColumn id="22" name="Data Selector Format" totalsRowFunction="none"/>
+    <tableColumn id="2" name="Parameter [nucleic acid extraction protocol]" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Term Source REF (EFO:0002944)" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Term Accession Number (EFO:0002944)" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Parameter [library layout]" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Term Source REF (DPBO:0000015)" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Term Accession Number (DPBO:0000015)" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Characteristic [library source]" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Term Source REF (GENEPIO:0001965)" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Term Accession Number (GENEPIO:0001965)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Parameter [library strategy]" totalsRowFunction="none"/>
+    <tableColumn id="12" name="Term Source REF (DPBO:0000035)" totalsRowFunction="none"/>
+    <tableColumn id="13" name="Term Accession Number (DPBO:0000035)" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Parameter [library selection]" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Term Source REF (DPBO:0000036)" totalsRowFunction="none"/>
+    <tableColumn id="16" name="Term Accession Number (DPBO:0000036)" totalsRowFunction="none"/>
+    <tableColumn id="17" name="Parameter [nucleic acid library construction protocol]" totalsRowFunction="none"/>
+    <tableColumn id="18" name="Term Source REF (EFO:0004184)" totalsRowFunction="none"/>
+    <tableColumn id="19" name="Term Accession Number (EFO:0004184)" totalsRowFunction="none"/>
+    <tableColumn id="20" name="Parameter [nucleic acid sequencing protocol]" totalsRowFunction="none"/>
+    <tableColumn id="21" name="Term Source REF (EFO:0004170)" totalsRowFunction="none"/>
+    <tableColumn id="22" name="Term Accession Number (EFO:0004170)" totalsRowFunction="none"/>
+    <tableColumn id="23" name="Output [Data]" totalsRowFunction="none"/>
+    <tableColumn id="24" name="Data Format" totalsRowFunction="none"/>
+    <tableColumn id="25" name="Data Selector Format" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -857,10 +875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:Y2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -927,73 +945,91 @@
       <c r="V1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
         <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" t="s">
         <v>75</v>
       </c>
-      <c r="K2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" t="s">
-        <v>66</v>
-      </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="Q2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="R2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="U2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="V2" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="W2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
